--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.718679</v>
+        <v>90.36280833333332</v>
       </c>
       <c r="H2">
-        <v>116.156037</v>
+        <v>271.088425</v>
       </c>
       <c r="I2">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="J2">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N2">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P2">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q2">
-        <v>101.4411321083133</v>
+        <v>519.6915711930554</v>
       </c>
       <c r="R2">
-        <v>912.97018897482</v>
+        <v>4677.2241407375</v>
       </c>
       <c r="S2">
-        <v>0.008567258002214266</v>
+        <v>0.02346632307166887</v>
       </c>
       <c r="T2">
-        <v>0.008567258002214266</v>
+        <v>0.02346632307166887</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.718679</v>
+        <v>90.36280833333332</v>
       </c>
       <c r="H3">
-        <v>116.156037</v>
+        <v>271.088425</v>
       </c>
       <c r="I3">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="J3">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P3">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q3">
-        <v>22.06377469701833</v>
+        <v>51.49309572406943</v>
       </c>
       <c r="R3">
-        <v>198.573972273165</v>
+        <v>463.4378615166249</v>
       </c>
       <c r="S3">
-        <v>0.001863406356015933</v>
+        <v>0.002325136075321306</v>
       </c>
       <c r="T3">
-        <v>0.001863406356015933</v>
+        <v>0.002325136075321306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.718679</v>
+        <v>90.36280833333332</v>
       </c>
       <c r="H4">
-        <v>116.156037</v>
+        <v>271.088425</v>
       </c>
       <c r="I4">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="J4">
-        <v>0.01404461724059496</v>
+        <v>0.03168888268931816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N4">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P4">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q4">
-        <v>42.791225813257</v>
+        <v>130.6059452664556</v>
       </c>
       <c r="R4">
-        <v>385.121032319313</v>
+        <v>1175.4535073981</v>
       </c>
       <c r="S4">
-        <v>0.003613952882364764</v>
+        <v>0.005897423542327989</v>
       </c>
       <c r="T4">
-        <v>0.003613952882364764</v>
+        <v>0.005897423542327989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>7534.194336999999</v>
       </c>
       <c r="I5">
-        <v>0.9109718135392577</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="J5">
-        <v>0.9109718135392579</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N5">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P5">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q5">
-        <v>6579.745855734757</v>
+        <v>14443.46911038105</v>
       </c>
       <c r="R5">
-        <v>59217.71270161281</v>
+        <v>129991.2219934295</v>
       </c>
       <c r="S5">
-        <v>0.5556954971173874</v>
+        <v>0.6521851251921953</v>
       </c>
       <c r="T5">
-        <v>0.5556954971173875</v>
+        <v>0.6521851251921953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7534.194336999999</v>
       </c>
       <c r="I6">
-        <v>0.9109718135392577</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="J6">
-        <v>0.9109718135392579</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P6">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q6">
         <v>1431.116028649629</v>
@@ -821,10 +821,10 @@
         <v>12880.04425784666</v>
       </c>
       <c r="S6">
-        <v>0.120865569949025</v>
+        <v>0.06462108093121345</v>
       </c>
       <c r="T6">
-        <v>0.1208655699490251</v>
+        <v>0.06462108093121346</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7534.194336999999</v>
       </c>
       <c r="I7">
-        <v>0.9109718135392577</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="J7">
-        <v>0.9109718135392579</v>
+        <v>0.8807096817347263</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N7">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P7">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q7">
-        <v>2775.55449998289</v>
+        <v>3629.850935926391</v>
       </c>
       <c r="R7">
-        <v>24979.99049984601</v>
+        <v>32668.65842333752</v>
       </c>
       <c r="S7">
-        <v>0.2344107464728452</v>
+        <v>0.1639034756113177</v>
       </c>
       <c r="T7">
-        <v>0.2344107464728452</v>
+        <v>0.1639034756113177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>201.6251223333333</v>
+        <v>240.3144276666667</v>
       </c>
       <c r="H8">
-        <v>604.875367</v>
+        <v>720.9432830000001</v>
       </c>
       <c r="I8">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777388</v>
       </c>
       <c r="J8">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777387</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N8">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P8">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q8">
-        <v>528.2484113409579</v>
+        <v>1382.088325915611</v>
       </c>
       <c r="R8">
-        <v>4754.23570206862</v>
+        <v>12438.7949332405</v>
       </c>
       <c r="S8">
-        <v>0.04461346531883695</v>
+        <v>0.06240726801680154</v>
       </c>
       <c r="T8">
-        <v>0.04461346531883695</v>
+        <v>0.06240726801680153</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>201.6251223333333</v>
+        <v>240.3144276666667</v>
       </c>
       <c r="H9">
-        <v>604.875367</v>
+        <v>720.9432830000001</v>
       </c>
       <c r="I9">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777388</v>
       </c>
       <c r="J9">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777387</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>1.709545</v>
       </c>
       <c r="O9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P9">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q9">
-        <v>114.8957399197794</v>
+        <v>136.9427760818039</v>
       </c>
       <c r="R9">
-        <v>1034.061659278015</v>
+        <v>1232.484984736235</v>
       </c>
       <c r="S9">
-        <v>0.009703573163961076</v>
+        <v>0.006183558872216244</v>
       </c>
       <c r="T9">
-        <v>0.009703573163961076</v>
+        <v>0.006183558872216245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>201.6251223333333</v>
+        <v>240.3144276666667</v>
       </c>
       <c r="H10">
-        <v>604.875367</v>
+        <v>720.9432830000001</v>
       </c>
       <c r="I10">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777388</v>
       </c>
       <c r="J10">
-        <v>0.07313647423921157</v>
+        <v>0.08427466838777387</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N10">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P10">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q10">
-        <v>222.8326575757203</v>
+        <v>347.3386182376352</v>
       </c>
       <c r="R10">
-        <v>2005.493918181483</v>
+        <v>3126.047564138717</v>
       </c>
       <c r="S10">
-        <v>0.01881943575641354</v>
+        <v>0.0156838414987561</v>
       </c>
       <c r="T10">
-        <v>0.01881943575641354</v>
+        <v>0.0156838414987561</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.092134333333333</v>
+        <v>9.486482333333333</v>
       </c>
       <c r="H11">
-        <v>15.276403</v>
+        <v>28.459447</v>
       </c>
       <c r="I11">
-        <v>0.001847094980935658</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="J11">
-        <v>0.001847094980935659</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.619953333333334</v>
+        <v>5.751166666666666</v>
       </c>
       <c r="N11">
-        <v>7.85986</v>
+        <v>17.2535</v>
       </c>
       <c r="O11">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="P11">
-        <v>0.6100029538328192</v>
+        <v>0.7405222614421495</v>
       </c>
       <c r="Q11">
-        <v>13.34115432039778</v>
+        <v>54.55834097938888</v>
       </c>
       <c r="R11">
-        <v>120.07038888358</v>
+        <v>491.0250688145</v>
       </c>
       <c r="S11">
-        <v>0.001126733394380526</v>
+        <v>0.002463545161483886</v>
       </c>
       <c r="T11">
-        <v>0.001126733394380526</v>
+        <v>0.002463545161483886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.092134333333333</v>
+        <v>9.486482333333333</v>
       </c>
       <c r="H12">
-        <v>15.276403</v>
+        <v>28.459447</v>
       </c>
       <c r="I12">
-        <v>0.001847094980935658</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="J12">
-        <v>0.001847094980935659</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>1.709545</v>
       </c>
       <c r="O12">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367415998</v>
       </c>
       <c r="P12">
-        <v>0.1326776176306101</v>
+        <v>0.07337387367416</v>
       </c>
       <c r="Q12">
-        <v>2.901744262959444</v>
+        <v>5.40585614684611</v>
       </c>
       <c r="R12">
-        <v>26.115698366635</v>
+        <v>48.652705321615</v>
       </c>
       <c r="S12">
-        <v>0.0002450681616080002</v>
+        <v>0.0002440977954089877</v>
       </c>
       <c r="T12">
-        <v>0.0002450681616080003</v>
+        <v>0.0002440977954089878</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.092134333333333</v>
+        <v>9.486482333333333</v>
       </c>
       <c r="H13">
-        <v>15.276403</v>
+        <v>28.459447</v>
       </c>
       <c r="I13">
-        <v>0.001847094980935658</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="J13">
-        <v>0.001847094980935659</v>
+        <v>0.003326767188181744</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.105183</v>
+        <v>1.445350666666667</v>
       </c>
       <c r="N13">
-        <v>3.315549</v>
+        <v>4.336052</v>
       </c>
       <c r="O13">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="P13">
-        <v>0.2573194285365706</v>
+        <v>0.1861038648836906</v>
       </c>
       <c r="Q13">
-        <v>5.627740298916334</v>
+        <v>13.71129356480489</v>
       </c>
       <c r="R13">
-        <v>50.649662690247</v>
+        <v>123.401642083244</v>
       </c>
       <c r="S13">
-        <v>0.0004752934249471314</v>
+        <v>0.0006191242312888706</v>
       </c>
       <c r="T13">
-        <v>0.0004752934249471315</v>
+        <v>0.0006191242312888706</v>
       </c>
     </row>
   </sheetData>
